--- a/threshold_ac/province_year_pareto_digital_controls_panel_data.xlsx
+++ b/threshold_ac/province_year_pareto_digital_controls_panel_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxu/PycharmProjects/Academic_Tools/threshold_ac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B3111A-DC56-F343-9A2F-F0FBC3524016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717079E7-3389-1F43-A169-AAC6167C17D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="22740" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1860" windowWidth="22740" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="68">
   <si>
     <t>province</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>黑龙江省</t>
-  </si>
-  <si>
-    <t>整理自“马 克 数 据 网”</t>
   </si>
 </sst>
 </file>
@@ -603,14 +600,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="20" max="20" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -37926,9 +37925,6 @@
       </c>
       <c r="S331">
         <v>114.56228956228949</v>
-      </c>
-      <c r="T331" t="s">
-        <v>68</v>
       </c>
       <c r="U331">
         <v>0.96899999999999997</v>
